--- a/config_ios/task_server.xlsx
+++ b/config_ios/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1714,10 +1714,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5,10,20,30,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>116,117,118,119,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1731,6 +1727,10 @@
   </si>
   <si>
     <t>prop_fishbowl_coin1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,10,10,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2370,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5757,9 +5757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8210,11 +8210,11 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I95" s="42" t="s">
         <v>411</v>
@@ -13378,7 +13378,7 @@
         <v>116</v>
       </c>
       <c r="C122" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D122" s="66">
         <v>50000</v>
@@ -13397,7 +13397,7 @@
         <v>116</v>
       </c>
       <c r="C123" s="67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D123" s="66">
         <v>100</v>
@@ -13416,7 +13416,7 @@
         <v>117</v>
       </c>
       <c r="C124" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D124" s="66">
         <v>5</v>
@@ -13435,7 +13435,7 @@
         <v>117</v>
       </c>
       <c r="C125" s="67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D125" s="66">
         <v>200</v>
@@ -13454,7 +13454,7 @@
         <v>118</v>
       </c>
       <c r="C126" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D126" s="66">
         <v>10</v>
@@ -13473,7 +13473,7 @@
         <v>118</v>
       </c>
       <c r="C127" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D127" s="66">
         <v>100000</v>
@@ -13492,7 +13492,7 @@
         <v>119</v>
       </c>
       <c r="C128" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D128" s="66">
         <v>20</v>
@@ -13511,7 +13511,7 @@
         <v>119</v>
       </c>
       <c r="C129" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D129" s="66">
         <v>500000</v>
@@ -46996,16 +46996,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
